--- a/Loading for day.xlsx
+++ b/Loading for day.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ripbud\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okrasotskyi\Desktop\Banana report (server)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{4B460FD7-BA24-284D-8FD1-6910E732F447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CCDFB69-2640-E047-9022-3D315152B74B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FD4B0-D2E6-45D1-BA5B-CD4FF76A7150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DD855C3-47FA-4BBC-AFA0-23D1E1E25C5F}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CUSTOMER</t>
   </si>
@@ -164,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,7 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -187,10 +176,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1" xr:uid="{B5206EF7-C68A-49F8-9BB9-049286BF9536}"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -206,9 +198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема &quot;Office 2013 – 2022&quot;">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013–2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +238,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013–2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -352,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013–2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,107 +497,121 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.32421875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.56640625" customWidth="1"/>
-    <col min="3" max="3" width="13.98828125" customWidth="1"/>
-    <col min="4" max="4" width="21.38671875" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20"/>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Loading for day.xlsx
+++ b/Loading for day.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okrasotskyi\Desktop\Banana report (server)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789FD4B0-D2E6-45D1-BA5B-CD4FF76A7150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD82274-4FB6-4E0C-8E77-93B6971B4FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5DD855C3-47FA-4BBC-AFA0-23D1E1E25C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$2</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>CUSTOMER</t>
   </si>
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chamber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes </t>
   </si>
 </sst>
 </file>
@@ -153,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -178,6 +184,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,10 +506,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,10 +517,11 @@
     <col min="1" max="1" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -522,7 +532,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -538,7 +548,7 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -550,47 +560,59 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -609,10 +631,11 @@
       <c r="A21"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J2" xr:uid="{8915A220-4B39-4BBC-B65B-7A5789D3466E}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>